--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4146979.749801587</v>
+        <v>4145099.570031258</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600970.2283818</v>
+        <v>185018.9824378869</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7441213.778714039</v>
+        <v>7441213.778714038</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822718</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>54.02252578980065</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.4685441446654</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>196.4317393392137</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.22320090265818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.787420751036338</v>
       </c>
       <c r="C7" t="n">
-        <v>121.2699779972375</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.2505623824991</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>56.55014841542519</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>22.11041309544132</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002174</v>
+        <v>115.5269768002169</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896884</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.4655527091734</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>17.37158781453937</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S19" t="n">
         <v>186.8801586578918</v>
@@ -2065,10 +2065,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.417613685521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>17.18735030790996</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.41761368552109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.41761368552123</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578918</v>
@@ -2533,16 +2533,16 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>45.66598970097044</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.4176136855211</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>189.1601726536136</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>115.558770627394</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552103</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3010,13 +3010,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373688</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2113.174258592771</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C2" t="n">
-        <v>1744.21174165236</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1385.946043045609</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1000.157790447365</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>589.1718856577575</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>2113.174258592771</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>170.577874895784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>170.577874895784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1330.553052060998</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1330.553052060998</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>972.2873534542475</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>586.4991008560032</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>579.5536001067998</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2661.570100207457</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2661.570100207457</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2442.935433179519</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2442.935433179519</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2442.935433179519</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.166777909405</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.166777909405</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>62.81916439716883</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1300.170120359985</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2584.999039512932</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2331.237254151024</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>160.0174871669324</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>570.9077560114449</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5239,10 +5239,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626376</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449335</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.1822962170266</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488377</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429509</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>644.1080300429509</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449335</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449335</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527472</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028586</v>
+        <v>114.7641498588104</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366501</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449756</v>
+        <v>807.0577537630751</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953629</v>
+        <v>563.5254386134624</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146765</v>
+        <v>285.260441632776</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729333</v>
+        <v>285.260441632776</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028586</v>
+        <v>285.260441632776</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>309.4092125432347</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>539.3723184115838</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>547.064302036596</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>389.2802921649633</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>250.3158258089018</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>250.3158258089018</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>114.5780513672656</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449757</v>
+        <v>995.825590791248</v>
       </c>
       <c r="V22" t="n">
-        <v>663.448368995363</v>
+        <v>995.825590791248</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146766</v>
+        <v>717.5605938105616</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729334</v>
+        <v>717.5605938105616</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028586</v>
+        <v>717.5605938105616</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,13 +6011,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>465.3115584262484</v>
       </c>
       <c r="L24" t="n">
-        <v>1050.793780719526</v>
+        <v>695.2746642945975</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1463.642810687059</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>551.2900853516063</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>393.5060754799736</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>393.5060754799736</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>393.5060754799736</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>393.5060754799736</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>236.4829268560683</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
         <v>822.7849551969364</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449756</v>
+        <v>807.0577537630751</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953629</v>
+        <v>760.9304914388622</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146765</v>
+        <v>760.9304914388622</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729336</v>
+        <v>760.9304914388622</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729336</v>
+        <v>551.2900853516063</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6242,16 +6242,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>549.3729734629519</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>549.3729734629519</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729336</v>
+        <v>375.44739321213</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729336</v>
+        <v>375.44739321213</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729336</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729336</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937162</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172997</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969368</v>
       </c>
       <c r="N28" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O28" t="n">
         <v>1349.06453185479</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449758</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953631</v>
+        <v>776.1586807676828</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146767</v>
+        <v>585.0877992993859</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729336</v>
+        <v>585.0877992993859</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729336</v>
+        <v>375.44739321213</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,16 +6452,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6476,16 +6476,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527472</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N30" t="n">
-        <v>1669.996816116898</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O30" t="n">
-        <v>2145.820610447073</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729334</v>
+        <v>349.6808968386837</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729334</v>
+        <v>349.6808968386837</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729334</v>
+        <v>349.6808968386837</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729334</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>120.53002873665</v>
@@ -6625,10 +6625,10 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969365</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6643,28 +6643,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449757</v>
+        <v>1019.690995917296</v>
       </c>
       <c r="V31" t="n">
-        <v>663.448368995363</v>
+        <v>776.158680767683</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146766</v>
+        <v>776.158680767683</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729334</v>
+        <v>559.3213029259398</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729334</v>
+        <v>349.6808968386837</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6707,22 +6707,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527472</v>
+        <v>990.9427979105847</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028583</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M39" t="n">
-        <v>629.3975440735817</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.809122337732</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2084.614473094989</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028583</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578678</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2238.711404795489</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,10 +7594,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047984</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454148</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,25 +7807,25 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254966</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.84894686497</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>205.7781038589164</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>184.175700520406</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>180.2368173133625</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417981</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>213.8962974826484</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338589</v>
+        <v>82.39383318338635</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0.1499203090389472</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>138.834581958377</v>
       </c>
       <c r="D19" t="n">
         <v>137.5748216925009</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.1263883408623</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>138.2655668297562</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1263883408623</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.37371517070463</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>137.5748216925009</v>
@@ -24376,13 +24376,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>195.4310022971461</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>63.9627830116987</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>86.32217435726596</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
@@ -24844,19 +24844,19 @@
         <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>19.8345406934637</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169876</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>630700.2804147542</v>
+        <v>630700.2804147539</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630700.2804147542</v>
+        <v>630700.2804147539</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>630700.2804147542</v>
+        <v>630700.2804147539</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="H2" t="n">
         <v>748956.5829925191</v>
       </c>
       <c r="I2" t="n">
+        <v>748956.5829925193</v>
+      </c>
+      <c r="J2" t="n">
+        <v>748956.5829925193</v>
+      </c>
+      <c r="K2" t="n">
         <v>748956.5829925191</v>
       </c>
-      <c r="J2" t="n">
-        <v>748956.5829925191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>748956.582992519</v>
-      </c>
       <c r="L2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710694</v>
       </c>
       <c r="N2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="O2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="O2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="P2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710692</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569155</v>
+        <v>8832.52106056915</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759027</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758785</v>
+        <v>787.793690576006</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415206</v>
+        <v>4420.718193415238</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415195</v>
+        <v>4420.71819341523</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415187</v>
+        <v>4420.718193415234</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415187</v>
+        <v>4420.71819341518</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415205</v>
+        <v>4420.718193415181</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501784</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501784</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501784</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
@@ -26497,19 +26497,19 @@
         <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002536</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750402</v>
+        <v>-31896.41508750414</v>
       </c>
       <c r="C6" t="n">
-        <v>558071.4641270406</v>
+        <v>558071.4641270404</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270406</v>
+        <v>558071.4641270404</v>
       </c>
       <c r="E6" t="n">
-        <v>125020.0573854586</v>
+        <v>124922.5982594864</v>
       </c>
       <c r="F6" t="n">
-        <v>650180.0938623548</v>
+        <v>650082.6347363825</v>
       </c>
       <c r="G6" t="n">
-        <v>642787.8412735168</v>
+        <v>642706.1752251524</v>
       </c>
       <c r="H6" t="n">
-        <v>651620.3623340861</v>
+        <v>651538.6962857215</v>
       </c>
       <c r="I6" t="n">
-        <v>651620.3623340861</v>
+        <v>651538.6962857216</v>
       </c>
       <c r="J6" t="n">
-        <v>475197.1431414931</v>
+        <v>475115.4770931286</v>
       </c>
       <c r="K6" t="n">
-        <v>651620.362334086</v>
+        <v>651538.6962857215</v>
       </c>
       <c r="L6" t="n">
-        <v>604562.4825154354</v>
+        <v>604562.482515435</v>
       </c>
       <c r="M6" t="n">
-        <v>524266.9793853104</v>
+        <v>524266.9793853106</v>
       </c>
       <c r="N6" t="n">
-        <v>659067.9946191479</v>
+        <v>659067.9946191475</v>
       </c>
       <c r="O6" t="n">
-        <v>659067.9946191479</v>
+        <v>659067.9946191476</v>
       </c>
       <c r="P6" t="n">
-        <v>659067.9946191475</v>
+        <v>659067.9946191474</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>11.04065132571144</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>184.0550285887357</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>359.7616442309944</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.84125811438554</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>217.3524306815813</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>19.25520167215353</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.044559430901</v>
       </c>
       <c r="C7" t="n">
-        <v>45.97684310139036</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.6798076897627</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>159.8981719422326</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>196.4742402566535</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="32">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31130,10 +31130,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>64.18133446428467</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,13 +32306,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,28 +32321,28 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>225.9628574215825</v>
+        <v>166.3536138871365</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,19 +32543,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>147.8809216101174</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32573,13 +32573,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32789,25 +32789,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>77.18758056137659</v>
       </c>
       <c r="L24" t="n">
-        <v>147.8809216101174</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33196,7 +33196,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946992</v>
@@ -33266,25 +33266,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>229.3640204507203</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>164.4358785485907</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33500,25 +33500,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>328.5774119587765</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33746,19 +33746,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>215.4712995911233</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.4943942860912</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P38" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33977,34 +33977,34 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>213.9849829127214</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458547</v>
+        <v>279.0818020779485</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,43 +34047,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,16 +34202,16 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34220,28 +34220,28 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813459</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458547</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446501</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622981</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508807</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>388.9994826499791</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>63.43474313802681</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>343.1107267700523</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>71.80369644458615</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>573.9635196818027</v>
+        <v>514.3542761473567</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
@@ -35981,10 +35981,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>46.334261546047</v>
       </c>
       <c r="L21" t="n">
-        <v>380.1668871337024</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046838</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>203.8113785995962</v>
       </c>
       <c r="L24" t="n">
-        <v>380.1668871337024</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>41.68243753348831</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>480.6300952830054</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>348.9242397741976</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>513.0657731843834</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>563.4719618513435</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>286.9827555116981</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>537.556012740703</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178375</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714616</v>
+        <v>463.5701633035554</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352442</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197798</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415661</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178375</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714616</v>
+        <v>79.92189006831815</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005177</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594832</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>740.606998911101</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>640.2655574822642</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
